--- a/templates/dataplant/4COM03_Metabolomics.xlsx
+++ b/templates/dataplant/4COM03_Metabolomics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81554896-4F12-4A2D-8EDB-09F5D645893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC31E6E1-A053-4BC3-9EE3-5D265C8456C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
   <si>
     <t>Source Name</t>
   </si>
@@ -428,13 +428,16 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>Derived Data File</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,12 +459,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -594,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -632,6 +629,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +672,7 @@
     <tableColumn id="9" xr3:uid="{9619B89E-A874-49D1-BC37-62F4B2414AE1}" name="Parameter [Processed data file format]"/>
     <tableColumn id="10" xr3:uid="{DDFA6052-FA5A-4D20-AA17-A4F04FE4A36B}" name="Term Source REF (NFDI4PSO:0000027)"/>
     <tableColumn id="11" xr3:uid="{E673CB83-13A4-4DA7-AE4C-6DD5ADADA883}" name="Term Accession Number (NFDI4PSO:0000027)"/>
-    <tableColumn id="15" xr3:uid="{59C30F60-F454-4315-8073-73FA9120E4A8}" name="Data File Name"/>
+    <tableColumn id="2" xr3:uid="{00863EC8-52BD-4290-8716-6625533DE283}" name="Derived Data File"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -978,7 +976,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="615" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="670" row="2">
@@ -1011,24 +1009,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1113,6 +1113,7 @@
       <c r="M2" t="s">
         <v>93</v>
       </c>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
@@ -1124,6 +1125,7 @@
       <c r="M3" t="s">
         <v>93</v>
       </c>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
@@ -1135,6 +1137,7 @@
       <c r="M4" t="s">
         <v>93</v>
       </c>
+      <c r="N4" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1148,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CEA683-AF15-48D2-94CB-61AAB771AF0A}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/templates/dataplant/4COM03_Metabolomics.xlsx
+++ b/templates/dataplant/4COM03_Metabolomics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC31E6E1-A053-4BC3-9EE3-5D265C8456C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389CF941-96A2-40AD-AFB8-1538ABD79FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>Source Name</t>
   </si>
@@ -151,24 +151,9 @@
     <t>Term Accession Number (MS:1000452)</t>
   </si>
   <si>
-    <t>Parameter [Processed data file format]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000027)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000027)</t>
-  </si>
-  <si>
     <t>Parameter [Metabolite Assignment File]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000077)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000077)</t>
-  </si>
-  <si>
     <t>Data File Name</t>
   </si>
   <si>
@@ -253,24 +238,9 @@
     <t>annotationTableGoodFirefox6</t>
   </si>
   <si>
-    <t>METABOLIGHTS</t>
-  </si>
-  <si>
     <t>Metabolomics</t>
   </si>
   <si>
-    <t>GC-MS</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>metabolites</t>
-  </si>
-  <si>
-    <t>Computational Analysis</t>
-  </si>
-  <si>
     <t>Brilhaus</t>
   </si>
   <si>
@@ -431,6 +401,66 @@
   </si>
   <si>
     <t>Derived Data File</t>
+  </si>
+  <si>
+    <t>MetaboLights</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000097</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C49019</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C17156</t>
+  </si>
+  <si>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>data processing protocol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000178</t>
+  </si>
+  <si>
+    <t>Kuhl</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Parameter [metabolite assignment file]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000077)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000077)</t>
+  </si>
+  <si>
+    <t>Parameter [processed data file format]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000027)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000027)</t>
   </si>
 </sst>
 </file>
@@ -461,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +522,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -586,12 +622,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -630,12 +677,27 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{55B805AD-1AFC-4E4A-94E1-DFD63646452E}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -656,22 +718,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EAFC761-E9AC-477E-83A4-B7B6305C83BB}" name="annotationTableGoodFirefox6" displayName="annotationTableGoodFirefox6" ref="A1:N4" totalsRowShown="0">
-  <autoFilter ref="A1:N4" xr:uid="{3EAFC761-E9AC-477E-83A4-B7B6305C83BB}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EAFC761-E9AC-477E-83A4-B7B6305C83BB}" name="annotationTableGoodFirefox6" displayName="annotationTableGoodFirefox6" ref="A1:Q4" totalsRowShown="0">
+  <autoFilter ref="A1:Q4" xr:uid="{3EAFC761-E9AC-477E-83A4-B7B6305C83BB}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{ABC5189C-88B0-45A7-96A2-18A8509FDB02}" name="Source Name"/>
+    <tableColumn id="15" xr3:uid="{E7EF794B-3C81-4053-911F-ABFDF4E93393}" name="Protocol Type"/>
+    <tableColumn id="16" xr3:uid="{DBE223E5-8804-4293-B81F-13FBC72EBC36}" name="Term Source REF (DPBO:1000161)" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{43869626-29C9-42E0-AE41-7F544A0A597C}" name="Term Accession Number (DPBO:1000161)" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{17F415C5-E9CE-4245-AB3A-BE5962B92971}" name="Parameter [area normalization]"/>
     <tableColumn id="4" xr3:uid="{291ED6D7-4AD7-4A76-8792-31CB8AD7BD08}" name="Term Source REF (MS:1001999)"/>
     <tableColumn id="5" xr3:uid="{0FE12979-1150-41B8-BB29-A0A123506389}" name="Term Accession Number (MS:1001999)"/>
     <tableColumn id="6" xr3:uid="{41AE29EA-67D9-49EC-91DD-E0F843FEB0DC}" name="Parameter [data transformation]"/>
     <tableColumn id="7" xr3:uid="{AB818AF6-3D27-4264-8C79-BE7ED3ACC9AA}" name="Term Source REF (MS:1000452)"/>
     <tableColumn id="8" xr3:uid="{CF0DEAC0-B99B-41F6-9F1D-3B4F01B87C35}" name="Term Accession Number (MS:1000452)"/>
-    <tableColumn id="12" xr3:uid="{6B724490-99FD-418E-B519-96CBCE8E263E}" name="Parameter [Metabolite Assignment File]"/>
-    <tableColumn id="13" xr3:uid="{0DD7F5EA-72EC-4AF2-BEA3-7D51AAFA69D4}" name="Term Source REF (NFDI4PSO:0000077)"/>
-    <tableColumn id="14" xr3:uid="{E07D7BBB-A36C-4B19-BE74-9F2CD6212A85}" name="Term Accession Number (NFDI4PSO:0000077)"/>
-    <tableColumn id="9" xr3:uid="{9619B89E-A874-49D1-BC37-62F4B2414AE1}" name="Parameter [Processed data file format]"/>
-    <tableColumn id="10" xr3:uid="{DDFA6052-FA5A-4D20-AA17-A4F04FE4A36B}" name="Term Source REF (NFDI4PSO:0000027)"/>
-    <tableColumn id="11" xr3:uid="{E673CB83-13A4-4DA7-AE4C-6DD5ADADA883}" name="Term Accession Number (NFDI4PSO:0000027)"/>
+    <tableColumn id="19" xr3:uid="{665C9DF0-EC59-419B-92AE-D658F03DC03C}" name="Parameter [metabolite assignment file]"/>
+    <tableColumn id="20" xr3:uid="{00C1D160-EBC8-4B8B-9622-D23CD4EC82E7}" name="Term Source REF (DPBO:0000077)" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{D0D54BD0-F784-4810-A1D4-C7830FFFD5B3}" name="Term Accession Number (DPBO:0000077)" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{8B63F214-5E2D-40E2-ABA7-797C6E5AEE6F}" name="Parameter [processed data file format]"/>
+    <tableColumn id="23" xr3:uid="{86CA40AB-281E-4A1B-A134-EB5994C0FA5F}" name="Term Source REF (DPBO:0000027)"/>
+    <tableColumn id="24" xr3:uid="{7F01C79F-36BF-4266-AB87-B8B8F0BB4F59}" name="Term Accession Number (DPBO:0000027)"/>
     <tableColumn id="2" xr3:uid="{00863EC8-52BD-4290-8716-6625533DE283}" name="Derived Data File"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -976,7 +1041,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="762" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="670" row="2">
@@ -1007,137 +1072,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="40" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="40" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="N1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,241 +1266,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CEA683-AF15-48D2-94CB-61AAB771AF0A}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B8" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1415,40 +1554,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1456,53 +1595,53 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1513,34 +1652,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -1550,31 +1689,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -1584,99 +1723,99 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>

--- a/templates/dataplant/4COM03_Metabolomics.xlsx
+++ b/templates/dataplant/4COM03_Metabolomics.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389CF941-96A2-40AD-AFB8-1538ABD79FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58960A6C-38BF-4DC3-BCF9-1E2C6411F91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
-    <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>Source Name</t>
   </si>
@@ -151,12 +150,6 @@
     <t>Term Accession Number (MS:1000452)</t>
   </si>
   <si>
-    <t>Parameter [Metabolite Assignment File]</t>
-  </si>
-  <si>
-    <t>Data File Name</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -254,111 +247,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>TermSourceRef</t>
-  </si>
-  <si>
-    <t>Ontology</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>Content type (validation)</t>
-  </si>
-  <si>
-    <t>Notes during templating</t>
-  </si>
-  <si>
-    <t>Target term</t>
-  </si>
-  <si>
-    <t>Instruction</t>
-  </si>
-  <si>
-    <t>Requirement (m/o/n)</t>
-  </si>
-  <si>
-    <t>Value (cv/s/d)</t>
-  </si>
-  <si>
-    <t>Additional information</t>
-  </si>
-  <si>
-    <t>Review comments</t>
-  </si>
-  <si>
-    <t>Sample Name</t>
-  </si>
-  <si>
-    <t>MS:1001999</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1001999</t>
-  </si>
-  <si>
-    <t>MS:1000452</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1000452</t>
-  </si>
-  <si>
-    <t>Parameter [processed data file]</t>
-  </si>
-  <si>
-    <t>MS:1003084</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MS_1003084</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000077</t>
-  </si>
-  <si>
-    <t>NFDI4PSO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000077</t>
-  </si>
-  <si>
-    <t>MASS SPECTROMETRY - Raw Spectral Data File</t>
-  </si>
-  <si>
-    <t>This is where you should enter the Raw (unprocessed) MS data files (.RAW ). Please add full path of the file in the cell.</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>METABOLITE IDENTIFICATION - Data Transformation Name</t>
-  </si>
-  <si>
-    <t>These should contain the data transformation files.</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>DATA TRANSFORMATION - Derived Spectral Data File</t>
-  </si>
-  <si>
-    <t>If your data has been transformed into one of the open-source raw data formats e.g. mzML , CDF, or any other converted file, then add them here. Please add full path of the file in the cell.</t>
-  </si>
-  <si>
-    <t>METABOLITE IDENTIFICATION - Metabolite Assignment File</t>
-  </si>
-  <si>
-    <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
   </si>
   <si>
     <t>normalized to ribitol and sample weight</t>
@@ -529,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -608,21 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFD2D2D2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD2D2D2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2D2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2D2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -638,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -670,15 +543,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1104,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1131,130 +998,130 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="N1" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="P1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>102</v>
+      <c r="B2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="13"/>
+      <c r="B3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="13"/>
+      <c r="B4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CEA683-AF15-48D2-94CB-61AAB771AF0A}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -1282,85 +1149,85 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1368,49 +1235,49 @@
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1418,35 +1285,35 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1454,7 +1321,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1462,7 +1329,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1470,7 +1337,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1478,7 +1345,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1486,7 +1353,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1494,7 +1361,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1502,7 +1369,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1510,7 +1377,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1518,7 +1385,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1527,301 +1394,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/templates/dataplant/4COM03_Metabolomics.xlsx
+++ b/templates/dataplant/4COM03_Metabolomics.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58960A6C-38BF-4DC3-BCF9-1E2C6411F91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EAB558-5AE0-4B03-BCCA-53141D05F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,75 +50,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3F105079-C209-495C-BFF9-7DB0D600B15C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=1683fef8-eb0f-4f29-bf9f-6d69e3d2e045</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{11ABCBB3-2191-475E-BA47-5A7D0696A15A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{B812F819-3360-47CA-A2FF-4486EF30858A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{BA9F1C94-3BD2-445E-9DE2-B0B49961501A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{9FAA5947-C9CC-402D-8377-296F3579A14E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{A1ABFB06-D6C4-4742-B1EF-7D0C8D2743B8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{49E74AD6-207F-46FE-91DE-31BB821BB017}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{B77877CB-479E-4B1C-801F-19D758F8BB90}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{4CCAE12B-B2E4-466D-A748-99B5DB23C602}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Source Name</t>
   </si>
@@ -289,12 +289,6 @@
   </si>
   <si>
     <t>Derived Data File</t>
-  </si>
-  <si>
-    <t>MetaboLights</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000097</t>
   </si>
   <si>
     <t>DPBO</t>
@@ -548,8 +542,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{55B805AD-1AFC-4E4A-94E1-DFD63646452E}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -945,39 +939,39 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="40" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="40" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -998,36 +992,36 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
-      </c>
-      <c r="O1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" t="s">
-        <v>73</v>
       </c>
       <c r="Q1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -1067,15 +1061,15 @@
       </c>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11" t="s">
@@ -1095,15 +1089,15 @@
       </c>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
@@ -1136,18 +1130,18 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1155,7 +1149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +1181,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1195,37 +1189,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1233,7 +1221,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1241,41 +1229,41 @@
         <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1283,7 +1271,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1294,10 +1282,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1308,10 +1296,10 @@
         <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1307,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1327,7 +1315,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1335,7 +1323,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1343,7 +1331,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1351,7 +1339,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1359,7 +1347,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -1367,7 +1355,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1375,7 +1363,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -1383,7 +1371,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>

--- a/templates/dataplant/4COM03_Metabolomics.xlsx
+++ b/templates/dataplant/4COM03_Metabolomics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EAB558-5AE0-4B03-BCCA-53141D05F12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E59056D-7918-4A10-99AE-F9A725AFF2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>Source Name</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Mass Spectrometry</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C17156</t>
-  </si>
-  <si>
     <t>Protocol Type</t>
   </si>
   <si>
@@ -343,6 +340,15 @@
   </si>
   <si>
     <t>Term Accession Number (DPBO:0000027)</t>
+  </si>
+  <si>
+    <t>NCIT:C17156</t>
+  </si>
+  <si>
+    <t>data processing</t>
+  </si>
+  <si>
+    <t>NCIT:C47925</t>
   </si>
 </sst>
 </file>
@@ -965,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -992,22 +998,22 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
       </c>
       <c r="Q1" t="s">
         <v>53</v>
@@ -1015,13 +1021,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -1063,13 +1069,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11" t="s">
@@ -1091,13 +1097,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11" t="s">
@@ -1130,7 +1136,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,10 +1238,10 @@
         <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1243,10 +1249,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,12 +1262,8 @@
       <c r="B14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1282,7 +1284,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1296,7 +1298,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
